--- a/xlsx/国富论_intext.xlsx
+++ b/xlsx/国富论_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>国富论</t>
   </si>
@@ -77,19 +77,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9A%B4%E5%BE%A9</t>
   </si>
   <si>
-    <t>嚴復</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%8B%E4%B8%8D%E8%A6%8B%E7%9A%84%E6%89%8B</t>
   </si>
   <si>
-    <t>看不見的手</t>
+    <t>看不见的手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E5%8A%9B</t>
@@ -143,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經濟自由主義</t>
+    <t>经济自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%AB%9E%E4%BA%89</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E9%BB%9E%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>標點符號</t>
+    <t>标点符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%8F%B2%E5%85%AC</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -868,7 +865,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -894,10 +891,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -923,10 +920,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -952,10 +949,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -981,10 +978,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -1010,10 +1007,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1039,10 +1036,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1068,10 +1065,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1097,10 +1094,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1126,10 +1123,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1155,10 +1152,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
         <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1184,10 +1181,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1213,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1242,10 +1239,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1271,10 +1268,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1300,10 +1297,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1329,10 +1326,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1358,10 +1355,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -1387,10 +1384,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1416,10 +1413,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1445,10 +1442,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1474,10 +1471,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1503,10 +1500,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1532,10 +1529,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1561,10 +1558,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1590,10 +1587,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1619,10 +1616,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1648,10 +1645,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -1677,10 +1674,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
